--- a/Model Results Table.xlsx
+++ b/Model Results Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prlewis/Desktop/Github/ML-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB170786-F57A-4BF9-AB41-4E67034FAA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187AD4A-E33C-A542-AB89-8DF1C7AD52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66C64373-89AA-4D73-9AA0-269E7ECF0440}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22280" windowHeight="16380" xr2:uid="{66C64373-89AA-4D73-9AA0-269E7ECF0440}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -65,20 +65,17 @@
     <t>ROC - AUC</t>
   </si>
   <si>
-    <t>Class_Weight = 1:1</t>
-  </si>
-  <si>
-    <t>Logisitic Regression</t>
-  </si>
-  <si>
-    <t>Class_Weight = 2:1</t>
+    <t>Symmetric Costs</t>
+  </si>
+  <si>
+    <t>Asymmetric Costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,21 +90,35 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +140,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA09C9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,21 +183,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA09C9C"/>
+      <color rgb="FF979393"/>
+      <color rgb="FFB8BDBD"/>
+      <color rgb="FFABB0B0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -483,211 +532,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FB5242-F464-4B47-A2ED-7B319B25EFF5}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C6" s="6">
         <v>0.80400000000000005</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D6" s="6">
         <v>0.82</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="6">
         <v>0.80400000000000005</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D7" s="6">
         <v>0.82</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C15" s="5">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="D15" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C18" s="5">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D18" s="5">
         <v>0.72</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C19" s="5">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D19" s="5">
         <v>0.76</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Model Results Table.xlsx
+++ b/Model Results Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prlewis/Desktop/Github/ML-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187AD4A-E33C-A542-AB89-8DF1C7AD52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454F32FF-1C56-6449-B1DA-79A366EB14D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22280" windowHeight="16380" xr2:uid="{66C64373-89AA-4D73-9AA0-269E7ECF0440}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22280" windowHeight="16360" xr2:uid="{66C64373-89AA-4D73-9AA0-269E7ECF0440}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,6 +202,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,7 +538,7 @@
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -553,12 +556,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
@@ -606,25 +609,27 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>0.80400000000000005</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>0.82</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6">
-        <v>0.80400000000000005</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="D7" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>0.86</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -651,12 +656,12 @@
       <c r="E9" s="5"/>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="2:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
@@ -704,25 +709,27 @@
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <v>0.78700000000000003</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="8">
         <v>0.81</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="6">
-        <v>0.78700000000000003</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="D17" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>0.86</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">

--- a/Model Results Table.xlsx
+++ b/Model Results Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prlewis/Desktop/Github/ML-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454F32FF-1C56-6449-B1DA-79A366EB14D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E011D537-F09C-1F4D-BB48-65937FCC2A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22280" windowHeight="16360" xr2:uid="{66C64373-89AA-4D73-9AA0-269E7ECF0440}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -610,12 +610,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="8">
-        <v>0.80400000000000005</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="D6" s="8">
         <v>0.82</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -636,24 +638,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="5">
-        <v>0.77400000000000002</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D8" s="5">
         <v>0.72</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5">
-        <v>0.76800000000000002</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D9" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="E9" s="5">
         <v>0.76</v>
       </c>
-      <c r="E9" s="5"/>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
@@ -710,12 +716,14 @@
         <v>3</v>
       </c>
       <c r="C16" s="8">
-        <v>0.78700000000000003</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="D16" s="8">
         <v>0.81</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
@@ -741,19 +749,23 @@
       <c r="D18" s="5">
         <v>0.72</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="5">
-        <v>0.76700000000000002</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="D19" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="E19" s="5">
         <v>0.76</v>
       </c>
-      <c r="E19" s="5"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I23" s="2"/>
